--- a/generated_docs/WR_90093002_WeekEnding_081725.xlsx
+++ b/generated_docs/WR_90093002_WeekEnding_081725.xlsx
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/16/2025 12:48 AM</t>
+          <t>Report Generated On: 08/18/2025 09:49 PM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>15161.98</v>
+        <v>0</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -799,7 +799,7 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -833,7 +833,7 @@
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -867,7 +867,7 @@
       </c>
       <c r="G19" s="13" t="inlineStr"/>
       <c r="H19" s="14" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -877,7 +877,7 @@
         </is>
       </c>
       <c r="H20" s="16" t="n">
-        <v>2254.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -960,7 +960,7 @@
       </c>
       <c r="G25" s="10" t="inlineStr"/>
       <c r="H25" s="11" t="n">
-        <v>1297.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -994,7 +994,7 @@
       </c>
       <c r="G26" s="13" t="inlineStr"/>
       <c r="H26" s="14" t="n">
-        <v>1297.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1028,7 +1028,7 @@
       </c>
       <c r="G27" s="10" t="inlineStr"/>
       <c r="H27" s="11" t="n">
-        <v>1945.59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1062,7 +1062,7 @@
       </c>
       <c r="G28" s="13" t="inlineStr"/>
       <c r="H28" s="14" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="G29" s="10" t="inlineStr"/>
       <c r="H29" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="G30" s="13" t="inlineStr"/>
       <c r="H30" s="14" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1140,7 +1140,7 @@
         </is>
       </c>
       <c r="H31" s="16" t="n">
-        <v>5975.360000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1223,7 +1223,7 @@
       </c>
       <c r="G36" s="10" t="inlineStr"/>
       <c r="H36" s="11" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="G37" s="13" t="inlineStr"/>
       <c r="H37" s="14" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1291,7 +1291,7 @@
       </c>
       <c r="G38" s="10" t="inlineStr"/>
       <c r="H38" s="11" t="n">
-        <v>1297.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1325,7 +1325,7 @@
       </c>
       <c r="G39" s="13" t="inlineStr"/>
       <c r="H39" s="14" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="G40" s="10" t="inlineStr"/>
       <c r="H40" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1393,7 +1393,7 @@
       </c>
       <c r="G41" s="13" t="inlineStr"/>
       <c r="H41" s="14" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1403,7 +1403,7 @@
         </is>
       </c>
       <c r="H42" s="16" t="n">
-        <v>4029.77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1486,7 +1486,7 @@
       </c>
       <c r="G47" s="10" t="inlineStr"/>
       <c r="H47" s="11" t="n">
-        <v>1297.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1520,7 +1520,7 @@
       </c>
       <c r="G48" s="13" t="inlineStr"/>
       <c r="H48" s="14" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1554,7 +1554,7 @@
       </c>
       <c r="G49" s="10" t="inlineStr"/>
       <c r="H49" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1588,7 +1588,7 @@
       </c>
       <c r="G50" s="13" t="inlineStr"/>
       <c r="H50" s="14" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1598,7 +1598,7 @@
         </is>
       </c>
       <c r="H51" s="16" t="n">
-        <v>2902.69</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/generated_docs/WR_90093002_WeekEnding_081725.xlsx
+++ b/generated_docs/WR_90093002_WeekEnding_081725.xlsx
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/18/2025 09:49 PM</t>
+          <t>Report Generated On: 08/26/2025 10:01 AM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0</v>
+        <v>15161.98</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -643,11 +643,7 @@
           <t>Scope ID #:</t>
         </is>
       </c>
-      <c r="G10" s="6" t="inlineStr">
-        <is>
-          <t>R25P20</t>
-        </is>
-      </c>
+      <c r="G10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="F11" s="4" t="inlineStr">
@@ -765,7 +761,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>0</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="17">
@@ -799,7 +795,7 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>0</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="18">
@@ -833,7 +829,7 @@
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="19">
@@ -867,7 +863,7 @@
       </c>
       <c r="G19" s="13" t="inlineStr"/>
       <c r="H19" s="14" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="20">
@@ -877,7 +873,7 @@
         </is>
       </c>
       <c r="H20" s="16" t="n">
-        <v>0</v>
+        <v>2254.16</v>
       </c>
     </row>
     <row r="23">
@@ -960,7 +956,7 @@
       </c>
       <c r="G25" s="10" t="inlineStr"/>
       <c r="H25" s="11" t="n">
-        <v>0</v>
+        <v>1297.06</v>
       </c>
     </row>
     <row r="26">
@@ -994,7 +990,7 @@
       </c>
       <c r="G26" s="13" t="inlineStr"/>
       <c r="H26" s="14" t="n">
-        <v>0</v>
+        <v>1297.06</v>
       </c>
     </row>
     <row r="27">
@@ -1028,7 +1024,7 @@
       </c>
       <c r="G27" s="10" t="inlineStr"/>
       <c r="H27" s="11" t="n">
-        <v>0</v>
+        <v>1945.59</v>
       </c>
     </row>
     <row r="28">
@@ -1062,7 +1058,7 @@
       </c>
       <c r="G28" s="13" t="inlineStr"/>
       <c r="H28" s="14" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="29">
@@ -1096,7 +1092,7 @@
       </c>
       <c r="G29" s="10" t="inlineStr"/>
       <c r="H29" s="11" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="30">
@@ -1130,7 +1126,7 @@
       </c>
       <c r="G30" s="13" t="inlineStr"/>
       <c r="H30" s="14" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="31">
@@ -1140,7 +1136,7 @@
         </is>
       </c>
       <c r="H31" s="16" t="n">
-        <v>0</v>
+        <v>5975.360000000001</v>
       </c>
     </row>
     <row r="34">
@@ -1223,7 +1219,7 @@
       </c>
       <c r="G36" s="10" t="inlineStr"/>
       <c r="H36" s="11" t="n">
-        <v>0</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="37">
@@ -1257,7 +1253,7 @@
       </c>
       <c r="G37" s="13" t="inlineStr"/>
       <c r="H37" s="14" t="n">
-        <v>0</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="38">
@@ -1291,7 +1287,7 @@
       </c>
       <c r="G38" s="10" t="inlineStr"/>
       <c r="H38" s="11" t="n">
-        <v>0</v>
+        <v>1297.06</v>
       </c>
     </row>
     <row r="39">
@@ -1325,7 +1321,7 @@
       </c>
       <c r="G39" s="13" t="inlineStr"/>
       <c r="H39" s="14" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="40">
@@ -1359,7 +1355,7 @@
       </c>
       <c r="G40" s="10" t="inlineStr"/>
       <c r="H40" s="11" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="41">
@@ -1393,7 +1389,7 @@
       </c>
       <c r="G41" s="13" t="inlineStr"/>
       <c r="H41" s="14" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="42">
@@ -1403,7 +1399,7 @@
         </is>
       </c>
       <c r="H42" s="16" t="n">
-        <v>0</v>
+        <v>4029.77</v>
       </c>
     </row>
     <row r="45">
@@ -1486,7 +1482,7 @@
       </c>
       <c r="G47" s="10" t="inlineStr"/>
       <c r="H47" s="11" t="n">
-        <v>0</v>
+        <v>1297.06</v>
       </c>
     </row>
     <row r="48">
@@ -1520,7 +1516,7 @@
       </c>
       <c r="G48" s="13" t="inlineStr"/>
       <c r="H48" s="14" t="n">
-        <v>0</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="49">
@@ -1554,7 +1550,7 @@
       </c>
       <c r="G49" s="10" t="inlineStr"/>
       <c r="H49" s="11" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="50">
@@ -1588,7 +1584,7 @@
       </c>
       <c r="G50" s="13" t="inlineStr"/>
       <c r="H50" s="14" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="51">
@@ -1598,7 +1594,7 @@
         </is>
       </c>
       <c r="H51" s="16" t="n">
-        <v>0</v>
+        <v>2902.69</v>
       </c>
     </row>
   </sheetData>
